--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_audio_info[音频信息_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_audio_info[音频信息_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17925" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -62,118 +62,202 @@
     <t>类型0音效 1音乐 2环境音</t>
   </si>
   <si>
-    <t>sound_btn_1</t>
+    <t>sound_btn_1.wav</t>
   </si>
   <si>
     <t>按钮1（点击）</t>
   </si>
   <si>
-    <t>sound_btn_2</t>
+    <t>sound_btn_2.wav</t>
   </si>
   <si>
     <t>按钮2（点击）</t>
   </si>
   <si>
-    <t>sound_btn_3</t>
+    <t>sound_btn_3.wav</t>
   </si>
   <si>
     <t>按钮3（点击）</t>
   </si>
   <si>
-    <t>sound_btn_4</t>
+    <t>sound_btn_4.mp3</t>
   </si>
   <si>
     <t>按钮4（点击）</t>
   </si>
   <si>
-    <t>sound_btn_5</t>
+    <t>sound_btn_5.mp3</t>
   </si>
   <si>
     <t>按钮5（点击）</t>
   </si>
   <si>
-    <t>sound_btn_6</t>
+    <t>sound_btn_6.wav</t>
   </si>
   <si>
     <t>按钮6（点击）</t>
   </si>
   <si>
-    <t>sound_btn_7</t>
+    <t>sound_btn_7.mp3</t>
   </si>
   <si>
     <t>按钮7（点击）</t>
   </si>
   <si>
-    <t>sound_btn_8</t>
+    <t>sound_btn_8.mp3</t>
   </si>
   <si>
     <t>按钮8（点击）</t>
   </si>
   <si>
-    <t>sound_btn_9</t>
+    <t>sound_btn_9.mp3</t>
   </si>
   <si>
     <t>按钮9（点击）</t>
   </si>
   <si>
-    <t>sound_btn_10</t>
+    <t>sound_btn_10.mp3</t>
   </si>
   <si>
     <t>按钮10（点击）</t>
   </si>
   <si>
-    <t>sound_btn_11</t>
+    <t>sound_btn_11.mp3</t>
   </si>
   <si>
     <t>按钮11（点击）</t>
   </si>
   <si>
-    <t>sound_btn_12</t>
+    <t>sound_btn_12.mp3</t>
   </si>
   <si>
     <t>按钮12（点击）</t>
   </si>
   <si>
-    <t>sound_btn_13</t>
+    <t>sound_btn_13.mp3</t>
   </si>
   <si>
     <t>按钮13（点击）</t>
   </si>
   <si>
-    <t>sound_btn_14</t>
+    <t>sound_btn_14.mp3</t>
   </si>
   <si>
     <t>按钮14（点击）</t>
   </si>
   <si>
-    <t>sound_btn_15</t>
+    <t>sound_btn_15.mp3</t>
   </si>
   <si>
     <t>按钮15（点击）</t>
   </si>
   <si>
-    <t>sound_btn_16</t>
+    <t>sound_btn_16.mp3</t>
   </si>
   <si>
     <t>按钮16（点击）</t>
   </si>
   <si>
-    <t>sound_btn_17</t>
+    <t>sound_btn_17.mp3</t>
   </si>
   <si>
     <t>按钮17（点击）</t>
   </si>
   <si>
-    <t>sound_btn_18</t>
+    <t>sound_btn_18.mp3</t>
   </si>
   <si>
     <t>按钮18（点击）</t>
   </si>
   <si>
-    <t>sound_btn_19</t>
+    <t>sound_btn_19.mp3</t>
   </si>
   <si>
     <t>按钮19（点击）</t>
+  </si>
+  <si>
+    <t>music_fight_1.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐1</t>
+  </si>
+  <si>
+    <t>music_fight_2.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐2</t>
+  </si>
+  <si>
+    <t>music_fight_3.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐3</t>
+  </si>
+  <si>
+    <t>music_fight_4.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐4</t>
+  </si>
+  <si>
+    <t>music_fight_5.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐5</t>
+  </si>
+  <si>
+    <t>music_fight_6.wav</t>
+  </si>
+  <si>
+    <t>战斗音乐6</t>
+  </si>
+  <si>
+    <t>music_gaming_1.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐1</t>
+  </si>
+  <si>
+    <t>music_gaming_2.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐2</t>
+  </si>
+  <si>
+    <t>music_gaming_3.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐3</t>
+  </si>
+  <si>
+    <t>music_gaming_4.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐4</t>
+  </si>
+  <si>
+    <t>music_gaming_5.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐5</t>
+  </si>
+  <si>
+    <t>music_gaming_6.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐6</t>
+  </si>
+  <si>
+    <t>music_gaming_7.wav</t>
+  </si>
+  <si>
+    <t>游戏中音乐7</t>
+  </si>
+  <si>
+    <t>music_main_1.wav</t>
+  </si>
+  <si>
+    <t>主界面音乐1</t>
   </si>
 </sst>
 </file>
@@ -1141,16 +1225,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1462,12 +1546,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1" spans="1:4">
+      <c r="A23">
+        <v>1000001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="12" customHeight="1" spans="1:4">
+      <c r="A24">
+        <v>1000002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="12" customHeight="1" spans="1:4">
+      <c r="A25">
+        <v>1000003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="12" customHeight="1" spans="1:4">
+      <c r="A26">
+        <v>1000004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="12" customHeight="1" spans="1:4">
+      <c r="A27">
+        <v>1000005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="12" customHeight="1" spans="1:4">
+      <c r="A28">
+        <v>1000006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1100001</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1100002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1100003</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1100004</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1100005</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1100006</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1100007</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1200001</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_audio_info[音频信息_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_audio_info[音频信息_FrameWork].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17925" windowHeight="16005"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="AudioInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>按钮19（点击）</t>
+  </si>
+  <si>
+    <t>sound_knife_miss_1.wav</t>
+  </si>
+  <si>
+    <t>刀-miss_1</t>
+  </si>
+  <si>
+    <t>sound_knife_hit_1.wav</t>
+  </si>
+  <si>
+    <t>刀-hit_1</t>
+  </si>
+  <si>
+    <t>sound_knife_hit_2.wav</t>
+  </si>
+  <si>
+    <t>刀-hit_2</t>
+  </si>
+  <si>
+    <t>sound_knife_hit_3.wav</t>
+  </si>
+  <si>
+    <t>刀-hit_3</t>
   </si>
   <si>
     <t>music_fight_1.wav</t>
@@ -1225,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1548,7 +1572,7 @@
     </row>
     <row r="23" ht="12" customHeight="1" spans="1:4">
       <c r="A23">
-        <v>1000001</v>
+        <v>100001</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -1557,12 +1581,12 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1" spans="1:4">
       <c r="A24">
-        <v>1000002</v>
+        <v>200001</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
@@ -1571,12 +1595,12 @@
         <v>52</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1" spans="1:4">
       <c r="A25">
-        <v>1000003</v>
+        <v>200002</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -1585,12 +1609,12 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="12" customHeight="1" spans="1:4">
       <c r="A26">
-        <v>1000004</v>
+        <v>200003</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -1599,12 +1623,12 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1" spans="1:4">
       <c r="A27">
-        <v>1000005</v>
+        <v>1000001</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
@@ -1618,7 +1642,7 @@
     </row>
     <row r="28" ht="12" customHeight="1" spans="1:4">
       <c r="A28">
-        <v>1000006</v>
+        <v>1000002</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -1630,9 +1654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="12" customHeight="1" spans="1:4">
       <c r="A29">
-        <v>1100001</v>
+        <v>1000003</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
@@ -1644,9 +1668,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="12" customHeight="1" spans="1:4">
       <c r="A30">
-        <v>1100002</v>
+        <v>1000004</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -1658,9 +1682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="12" customHeight="1" spans="1:4">
       <c r="A31">
-        <v>1100003</v>
+        <v>1000005</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -1672,9 +1696,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" ht="12" customHeight="1" spans="1:4">
       <c r="A32">
-        <v>1100004</v>
+        <v>1000006</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -1688,7 +1712,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1100005</v>
+        <v>1100001</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -1702,7 +1726,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1100006</v>
+        <v>1100002</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
@@ -1716,7 +1740,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1100007</v>
+        <v>1100003</v>
       </c>
       <c r="B35" t="s">
         <v>73</v>
@@ -1730,7 +1754,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1200001</v>
+        <v>1100004</v>
       </c>
       <c r="B36" t="s">
         <v>75</v>
@@ -1739,6 +1763,62 @@
         <v>76</v>
       </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1100005</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1100006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1100007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1200001</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
     </row>
